--- a/Demo/file.xlsx
+++ b/Demo/file.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Attack URL</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>Detection</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -347,31 +317,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="96.42578125" customWidth="1"/>
+    <col width="109.7109375" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" customWidth="1" min="2" max="2"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="96.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Attack URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Successful</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="keywords" content="" onmouseover="alert`1`," onmouseover="alert`1`报价," onmouseover="alert`1`最新报价," onmouseover="alert`1`大全," onmouseover="alert`1`报价大全" /&gt; , &lt;meta name="description" content="天极产品库_wap版提供" onmouseover="alert`1`最新报价信息,包括" onmouseover="alert`1`价格,参数,评测,图片,论坛等详细内容." /&gt; , &lt;input type="text" id = "textin" value="" onmouseover="alert`1`" name="keyword" class="wapin" onClick="this.value='';"&gt; , </t>
+        </is>
       </c>
     </row>
   </sheetData>
